--- a/utilities/Excel_Sheets/Products/CYB_MDA_BALLPARK.xlsx
+++ b/utilities/Excel_Sheets/Products/CYB_MDA_BALLPARK.xlsx
@@ -568,7 +568,7 @@
       </c>
       <c r="C2" s="5">
         <f ca="1">TODAY()</f>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -719,7 +719,7 @@
       </c>
       <c r="C10" s="5">
         <f ca="1">TODAY()</f>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>18</v>
@@ -1441,7 +1441,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane ySplit="11" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="C2" s="5">
         <f ca="1">TODAY()</f>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>13</v>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="C7" s="5">
         <f ca="1">TODAY()</f>
-        <v>43263</v>
+        <v>43264</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>18</v>
